--- a/item_deals.xlsx
+++ b/item_deals.xlsx
@@ -8,25 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kshit\Downloads\EY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4C5446-9B7F-4F56-8E9D-66596C3DD075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF64042-2EA7-44EE-A529-69A2BAFCF91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial" sheetId="1" r:id="rId1"/>
     <sheet name="Updated" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="55">
   <si>
     <t>₹180</t>
   </si>
@@ -122,6 +131,75 @@
   </si>
   <si>
     <t>Agarwal Traders</t>
+  </si>
+  <si>
+    <t>Items           Gupta Traders   Singh Brothers  Sharma Enterprises  Agarwal Traders</t>
+  </si>
+  <si>
+    <t>₹177</t>
+  </si>
+  <si>
+    <t>₹220</t>
+  </si>
+  <si>
+    <t>₹130</t>
+  </si>
+  <si>
+    <t>₹202</t>
+  </si>
+  <si>
+    <t>₹335.50</t>
+  </si>
+  <si>
+    <t>₹445</t>
+  </si>
+  <si>
+    <t>₹330</t>
+  </si>
+  <si>
+    <t>₹435</t>
+  </si>
+  <si>
+    <t>₹440</t>
+  </si>
+  <si>
+    <t>₹500</t>
+  </si>
+  <si>
+    <t>₹600</t>
+  </si>
+  <si>
+    <t>₹670</t>
+  </si>
+  <si>
+    <t>₹525</t>
+  </si>
+  <si>
+    <t>₹100</t>
+  </si>
+  <si>
+    <t>₹80</t>
+  </si>
+  <si>
+    <t>₹125</t>
+  </si>
+  <si>
+    <t>₹200</t>
+  </si>
+  <si>
+    <t>₹400</t>
+  </si>
+  <si>
+    <t>₹560</t>
+  </si>
+  <si>
+    <t>₹530</t>
+  </si>
+  <si>
+    <t>₹300</t>
+  </si>
+  <si>
+    <t>₹325</t>
   </si>
 </sst>
 </file>
@@ -447,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -667,15 +745,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5053E33-6089-4150-8EAE-67AAFDEB55F2}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>28</v>
@@ -695,16 +773,16 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -715,13 +793,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -732,10 +810,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -752,10 +830,10 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -763,13 +841,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -783,13 +861,13 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -806,7 +884,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -817,13 +895,13 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -840,7 +918,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -848,16 +926,16 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -865,16 +943,16 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/item_deals.xlsx
+++ b/item_deals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kshit\Downloads\EY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF64042-2EA7-44EE-A529-69A2BAFCF91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0B4A66-A356-4A6C-A629-F7BB51A2CB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,9 +133,6 @@
     <t>Agarwal Traders</t>
   </si>
   <si>
-    <t>Items           Gupta Traders   Singh Brothers  Sharma Enterprises  Agarwal Traders</t>
-  </si>
-  <si>
     <t>₹177</t>
   </si>
   <si>
@@ -200,6 +197,9 @@
   </si>
   <si>
     <t>₹325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Items </t>
   </si>
 </sst>
 </file>
@@ -745,15 +745,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5053E33-6089-4150-8EAE-67AAFDEB55F2}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>28</v>
@@ -773,16 +771,16 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
         <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -793,13 +791,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -810,10 +808,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
         <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -830,10 +828,10 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -841,13 +839,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -861,13 +859,13 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
         <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -884,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -895,13 +893,13 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -926,16 +924,16 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
         <v>51</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>52</v>
-      </c>
-      <c r="E11" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -943,16 +941,16 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
